--- a/Tickers.xlsx
+++ b/Tickers.xlsx
@@ -11,98 +11,170 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="173">
   <si>
     <t>T</t>
   </si>
   <si>
+    <t>2.53</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
+    <t>2.32</t>
+  </si>
+  <si>
     <t>QCOM</t>
   </si>
   <si>
     <t>OKE</t>
   </si>
   <si>
+    <t>1.84</t>
+  </si>
+  <si>
     <t>MO</t>
   </si>
   <si>
+    <t>1.74</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
+    <t>1.65</t>
+  </si>
+  <si>
     <t>EIX</t>
   </si>
   <si>
+    <t>1.60</t>
+  </si>
+  <si>
     <t>TGT</t>
   </si>
   <si>
+    <t>1.58</t>
+  </si>
+  <si>
     <t>GIS</t>
   </si>
   <si>
     <t>CTL</t>
   </si>
   <si>
+    <t>1.57</t>
+  </si>
+  <si>
     <t>ETR</t>
   </si>
   <si>
+    <t>1.56</t>
+  </si>
+  <si>
     <t>PM</t>
   </si>
   <si>
+    <t>1.55</t>
+  </si>
+  <si>
     <t>STX</t>
   </si>
   <si>
+    <t>1.54</t>
+  </si>
+  <si>
     <t>PPL</t>
   </si>
   <si>
     <t>WDC</t>
   </si>
   <si>
+    <t>1.49</t>
+  </si>
+  <si>
     <t>IBM</t>
   </si>
   <si>
+    <t>1.42</t>
+  </si>
+  <si>
     <t>VZ</t>
   </si>
   <si>
     <t>PFG</t>
   </si>
   <si>
+    <t>1.41</t>
+  </si>
+  <si>
     <t>KMB</t>
   </si>
   <si>
+    <t>1.40</t>
+  </si>
+  <si>
     <t>KO</t>
   </si>
   <si>
     <t>FE</t>
   </si>
   <si>
+    <t>1.37</t>
+  </si>
+  <si>
     <t>VLO</t>
   </si>
   <si>
+    <t>1.32</t>
+  </si>
+  <si>
     <t>WEC</t>
   </si>
   <si>
+    <t>1.26</t>
+  </si>
+  <si>
     <t>SRE</t>
   </si>
   <si>
+    <t>1.24</t>
+  </si>
+  <si>
     <t>CVX</t>
   </si>
   <si>
+    <t>1.23</t>
+  </si>
+  <si>
     <t>AEP</t>
   </si>
   <si>
+    <t>1.22</t>
+  </si>
+  <si>
     <t>LYB</t>
   </si>
   <si>
+    <t>1.20</t>
+  </si>
+  <si>
     <t>KEY</t>
   </si>
   <si>
     <t>GM</t>
   </si>
   <si>
+    <t>1.19</t>
+  </si>
+  <si>
     <t>IP</t>
   </si>
   <si>
+    <t>1.18</t>
+  </si>
+  <si>
     <t>WU</t>
   </si>
   <si>
@@ -112,15 +184,24 @@
     <t>XOM</t>
   </si>
   <si>
+    <t>1.17</t>
+  </si>
+  <si>
     <t>ES</t>
   </si>
   <si>
     <t>LNT</t>
   </si>
   <si>
+    <t>1.16</t>
+  </si>
+  <si>
     <t>CNP</t>
   </si>
   <si>
+    <t>1.15</t>
+  </si>
+  <si>
     <t>HBAN</t>
   </si>
   <si>
@@ -169,66 +250,120 @@
     <t>MCD</t>
   </si>
   <si>
+    <t>0.99</t>
+  </si>
+  <si>
     <t>OXY</t>
   </si>
   <si>
     <t>DRI</t>
   </si>
   <si>
+    <t>0.98</t>
+  </si>
+  <si>
     <t>IPG</t>
   </si>
   <si>
+    <t>0.97</t>
+  </si>
+  <si>
     <t>BBT</t>
   </si>
   <si>
+    <t>0.95</t>
+  </si>
+  <si>
     <t>MRK</t>
   </si>
   <si>
     <t>EXC</t>
   </si>
   <si>
+    <t>0.93</t>
+  </si>
+  <si>
     <t>PFE</t>
   </si>
   <si>
+    <t>0.91</t>
+  </si>
+  <si>
     <t>NWL</t>
   </si>
   <si>
+    <t>0.88</t>
+  </si>
+  <si>
     <t>ORI</t>
   </si>
   <si>
+    <t>0.82</t>
+  </si>
+  <si>
     <t>IVZ</t>
   </si>
   <si>
+    <t>0.81</t>
+  </si>
+  <si>
     <t>EMR</t>
   </si>
   <si>
+    <t>0.80</t>
+  </si>
+  <si>
     <t>GRMN</t>
   </si>
   <si>
+    <t>0.79</t>
+  </si>
+  <si>
     <t>KSS</t>
   </si>
   <si>
+    <t>0.77</t>
+  </si>
+  <si>
     <t>GPC</t>
   </si>
   <si>
+    <t>0.75</t>
+  </si>
+  <si>
     <t>HFC</t>
   </si>
   <si>
+    <t>0.74</t>
+  </si>
+  <si>
     <t>HRB</t>
   </si>
   <si>
+    <t>0.72</t>
+  </si>
+  <si>
     <t>NYCB</t>
   </si>
   <si>
+    <t>0.71</t>
+  </si>
+  <si>
     <t>CAT</t>
   </si>
   <si>
+    <t>0.70</t>
+  </si>
+  <si>
     <t>SON</t>
   </si>
   <si>
     <t>IDA</t>
   </si>
   <si>
+    <t>0.68</t>
+  </si>
+  <si>
     <t>PBCT</t>
   </si>
   <si>
@@ -238,21 +373,36 @@
     <t>WSO</t>
   </si>
   <si>
+    <t>0.64</t>
+  </si>
+  <si>
     <t>HOG</t>
   </si>
   <si>
+    <t>0.61</t>
+  </si>
+  <si>
     <t>LEG</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
+    <t>0.58</t>
+  </si>
+  <si>
     <t>LAZ</t>
   </si>
   <si>
+    <t>0.57</t>
+  </si>
+  <si>
     <t>HUN</t>
   </si>
   <si>
+    <t>0.52</t>
+  </si>
+  <si>
     <t>PACW</t>
   </si>
   <si>
@@ -262,73 +412,134 @@
     <t>HP</t>
   </si>
   <si>
+    <t>0.51</t>
+  </si>
+  <si>
     <t>NJR</t>
   </si>
   <si>
+    <t>0.49</t>
+  </si>
+  <si>
     <t>CNK</t>
   </si>
   <si>
+    <t>0.48</t>
+  </si>
+  <si>
     <t>LB</t>
   </si>
   <si>
     <t>UBSI</t>
   </si>
   <si>
+    <t>0.47</t>
+  </si>
+  <si>
     <t>NWE</t>
   </si>
   <si>
+    <t>0.45</t>
+  </si>
+  <si>
     <t>FNB</t>
   </si>
   <si>
+    <t>0.44</t>
+  </si>
+  <si>
     <t>VLY</t>
   </si>
   <si>
+    <t>0.43</t>
+  </si>
+  <si>
     <t>BOH</t>
   </si>
   <si>
+    <t>0.42</t>
+  </si>
+  <si>
     <t>GPS</t>
   </si>
   <si>
     <t>JHG</t>
   </si>
   <si>
+    <t>0.39</t>
+  </si>
+  <si>
     <t>AVA</t>
   </si>
   <si>
     <t>FII</t>
   </si>
   <si>
+    <t>0.38</t>
+  </si>
+  <si>
     <t>OLN</t>
   </si>
   <si>
+    <t>0.34</t>
+  </si>
+  <si>
     <t>USD</t>
   </si>
   <si>
+    <t>0.32</t>
+  </si>
+  <si>
     <t>NUS</t>
   </si>
   <si>
+    <t>0.29</t>
+  </si>
+  <si>
     <t>TRMK</t>
   </si>
   <si>
+    <t>0.28</t>
+  </si>
+  <si>
     <t>UFS</t>
   </si>
   <si>
+    <t>0.26</t>
+  </si>
+  <si>
     <t>MDP</t>
   </si>
   <si>
+    <t>0.22</t>
+  </si>
+  <si>
     <t>XTSLA</t>
   </si>
   <si>
+    <t>0.15</t>
+  </si>
+  <si>
     <t>UBFUT</t>
   </si>
   <si>
+    <t>0.02</t>
+  </si>
+  <si>
     <t>ESU9</t>
+  </si>
+  <si>
+    <t>0.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd.mm"/>
+    <numFmt numFmtId="165" formatCode="d.m"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10.0"/>
@@ -355,12 +566,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,520 +802,832 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>43557.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>55</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>56</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>58</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>59</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>63</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>64</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>65</v>
+      </c>
+      <c r="B39" s="4">
+        <v>43800.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>66</v>
+      </c>
+      <c r="B40" s="4">
+        <v>43770.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>67</v>
+      </c>
+      <c r="B41" s="4">
+        <v>43770.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>68</v>
+      </c>
+      <c r="B42" s="3">
+        <v>43709.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>69</v>
+      </c>
+      <c r="B43" s="3">
+        <v>43678.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>70</v>
+      </c>
+      <c r="B44" s="3">
+        <v>43647.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>71</v>
+      </c>
+      <c r="B45" s="3">
+        <v>43647.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>72</v>
+      </c>
+      <c r="B46" s="3">
+        <v>43647.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>73</v>
+      </c>
+      <c r="B47" s="3">
+        <v>43617.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>74</v>
+      </c>
+      <c r="B48" s="3">
+        <v>43617.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
+      </c>
+      <c r="B49" s="3">
+        <v>43617.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>76</v>
+      </c>
+      <c r="B50" s="3">
+        <v>43586.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>77</v>
+      </c>
+      <c r="B51" s="3">
+        <v>43525.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>78</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>80</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>81</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>83</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>85</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>87</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>88</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>90</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>92</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>94</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>96</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>98</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>100</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>102</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>106</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>108</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>110</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>112</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>114</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>115</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>117</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>118</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>119</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>121</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>123</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>124</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>126</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>128</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>130</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>131</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>132</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>134</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>136</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>138</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>139</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>141</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>143</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>145</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>147</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>149</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>150</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>152</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>153</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>155</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>157</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>159</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>161</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>163</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>165</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>167</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>169</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>171</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/Tickers.xlsx
+++ b/Tickers.xlsx
@@ -537,8 +537,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd.mm"/>
-    <numFmt numFmtId="165" formatCode="d.m"/>
+    <numFmt numFmtId="164" formatCode="d.m"/>
+    <numFmt numFmtId="165" formatCode="dd.mm"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -818,8 +818,8 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3">
-        <v>43557.0</v>
+      <c r="B3" s="2">
+        <v>2.04</v>
       </c>
     </row>
     <row r="4">
@@ -1106,7 +1106,7 @@
       <c r="A39" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>43800.0</v>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
       <c r="A40" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <v>43770.0</v>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       <c r="A41" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <v>43770.0</v>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       <c r="A42" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="4">
         <v>43709.0</v>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
       <c r="A43" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="4">
         <v>43678.0</v>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       <c r="A44" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="4">
         <v>43647.0</v>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
       <c r="A45" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="4">
         <v>43647.0</v>
       </c>
     </row>
@@ -1162,7 +1162,7 @@
       <c r="A46" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="4">
         <v>43647.0</v>
       </c>
     </row>
@@ -1170,7 +1170,7 @@
       <c r="A47" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="4">
         <v>43617.0</v>
       </c>
     </row>
@@ -1178,7 +1178,7 @@
       <c r="A48" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="4">
         <v>43617.0</v>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       <c r="A49" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="4">
         <v>43617.0</v>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       <c r="A50" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="4">
         <v>43586.0</v>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       <c r="A51" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="4">
         <v>43525.0</v>
       </c>
     </row>
